--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -178,9 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,50 +512,51 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45139</v>
       </c>
       <c r="B2" t="s">
@@ -588,12 +588,41 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="4">
+        <v>45140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A3"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -69,7 +69,32 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Due to office she is not able to attend.</t>
+Due to office work load she is not able to attend.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not able to attend due to personal reason
+</t>
         </r>
       </text>
     </comment>
@@ -78,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -120,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +181,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,10 +657,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A3"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A4"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -98,12 +98,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not able to join because of travelling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -538,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,10 +713,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A4"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A5"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -122,12 +122,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Daughter is not well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Had a celebration at home</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -562,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,10 +817,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A5"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -194,12 +194,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -634,7 +658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,11 +666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -859,10 +883,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A8"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -218,12 +218,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Informed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -658,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -666,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,10 +987,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A9"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A11"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -290,12 +290,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not informed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -730,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,11 +810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1051,10 +1123,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A11"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A12"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>

--- a/Team_Everyday_Attendence.xlsx
+++ b/Team_Everyday_Attendence.xlsx
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -802,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,11 +810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1155,10 +1155,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A12"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2:A13"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K1048576">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
